--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254886EC-F2A3-4F90-8B23-CF7DA418BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$62</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -580,18 +581,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(5,203,0)</t>
-  </si>
-  <si>
     <t>(5,205,0)</t>
   </si>
   <si>
     <t>(5,206,0)</t>
   </si>
   <si>
-    <t>(5,207,0)</t>
-  </si>
-  <si>
     <t>(5,301,0)</t>
   </si>
   <si>
@@ -604,13 +599,7 @@
     <t>(5,305,0)</t>
   </si>
   <si>
-    <t>(5,306,0)</t>
-  </si>
-  <si>
     <t>(5,307,0)</t>
-  </si>
-  <si>
-    <t>(5,308,0)</t>
   </si>
   <si>
     <t>(5,309,0)</t>
@@ -682,8 +671,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,8 +690,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -735,7 +724,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -775,9 +764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -815,7 +804,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -849,6 +838,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -883,9 +873,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,20 +1049,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>200</v>
       </c>
@@ -1135,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -1158,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>202</v>
       </c>
@@ -1181,30 +1172,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>203</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>204</v>
       </c>
@@ -1227,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>205</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>206</v>
       </c>
@@ -1282,39 +1273,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>207</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>207</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>208</v>
       </c>
@@ -1337,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>209</v>
       </c>
@@ -1360,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>210</v>
       </c>
@@ -1383,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>301</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>100135</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>302</v>
       </c>
@@ -1447,7 +1438,7 @@
         <v>100025</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>303</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>304</v>
       </c>
@@ -1493,7 +1484,7 @@
         <v>100144</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>305</v>
       </c>
@@ -1516,30 +1507,30 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>306</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>106</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>307</v>
       </c>
@@ -1562,30 +1553,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>308</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>107</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>309</v>
       </c>
@@ -1608,7 +1599,7 @@
         <v>100139</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>310</v>
       </c>
@@ -1631,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>311</v>
       </c>
@@ -1654,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>312</v>
       </c>
@@ -1677,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>313</v>
       </c>
@@ -1700,7 +1691,7 @@
         <v>100139</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>314</v>
       </c>
@@ -1732,7 +1723,7 @@
         <v>500004</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>315</v>
       </c>
@@ -1755,7 +1746,7 @@
         <v>100140</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>316</v>
       </c>
@@ -1778,7 +1769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>317</v>
       </c>
@@ -1801,7 +1792,7 @@
         <v>100139</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>320</v>
       </c>
@@ -1824,7 +1815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>321</v>
       </c>
@@ -1856,7 +1847,7 @@
         <v>500035</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>322</v>
       </c>
@@ -1879,7 +1870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>323</v>
       </c>
@@ -1902,7 +1893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>324</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>325</v>
       </c>
@@ -1975,7 +1966,7 @@
         <v>900102</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>326</v>
       </c>
@@ -2007,7 +1998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>327</v>
       </c>
@@ -2030,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>328</v>
       </c>
@@ -2062,7 +2053,7 @@
         <v>500005</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>329</v>
       </c>
@@ -2085,7 +2076,7 @@
         <v>600056</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>330</v>
       </c>
@@ -2108,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>331</v>
       </c>
@@ -2131,7 +2122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>332</v>
       </c>
@@ -2154,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>333</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>100154</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>334</v>
       </c>
@@ -2200,7 +2191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>335</v>
       </c>
@@ -2223,7 +2214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>336</v>
       </c>
@@ -2255,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>338</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>339</v>
       </c>
@@ -2301,7 +2292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>341</v>
       </c>
@@ -2324,7 +2315,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>342</v>
       </c>
@@ -2347,7 +2338,7 @@
         <v>500008</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>343</v>
       </c>
@@ -2370,7 +2361,7 @@
         <v>500007</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>344</v>
       </c>
@@ -2393,7 +2384,7 @@
         <v>500001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>345</v>
       </c>
@@ -2416,7 +2407,7 @@
         <v>500009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>346</v>
       </c>
@@ -2439,7 +2430,7 @@
         <v>100143</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>347</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>100140</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>348</v>
       </c>
@@ -2485,7 +2476,7 @@
         <v>100145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>349</v>
       </c>
@@ -2508,7 +2499,7 @@
         <v>500026</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>350</v>
       </c>
@@ -2531,7 +2522,7 @@
         <v>500023</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>351</v>
       </c>
@@ -2554,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>352</v>
       </c>
@@ -2577,7 +2568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>353</v>
       </c>
@@ -2609,7 +2600,7 @@
         <v>100135</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>401</v>
       </c>
@@ -2633,7 +2624,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M62"/>
+  <autoFilter ref="A1:M62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -2644,647 +2635,577 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="142.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="31.25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F2" s="2" t="str">
+        <f>A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18&amp;","&amp;A19&amp;","&amp;A20&amp;","&amp;A21&amp;","&amp;A22&amp;","&amp;A23&amp;","&amp;A24&amp;","&amp;A25&amp;","&amp;A26&amp;","&amp;A27&amp;","&amp;A28&amp;","&amp;A29&amp;","&amp;A30&amp;","&amp;A31</f>
+        <v>205,206,301,302,303,305,307,309,310,311,312,313,315,317,320,321,322,323,325,326,327,332,333,334,335,351,352,353,401</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>877001</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5">
-      <c r="A3">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18&amp;","&amp;A19&amp;","&amp;A20&amp;","&amp;A21&amp;","&amp;A22&amp;","&amp;A23&amp;","&amp;A24&amp;","&amp;A25&amp;","&amp;A26&amp;","&amp;A27&amp;","&amp;A28&amp;","&amp;A29&amp;","&amp;A30&amp;","&amp;A31&amp;","&amp;A32&amp;","&amp;A33&amp;","&amp;A34&amp;","&amp;A35</f>
-        <v>203,205,206,207,301,302,303,305,306,307,308,309,310,311,312,313,315,317,320,321,322,323,325,326,327,332,333,334,335,351,352,353,401</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J35" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A3&amp;$O$2</f>
-        <v>(5,203,0)</v>
-      </c>
-      <c r="P3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J31" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A3&amp;$O$2</f>
+        <v>(5,205,0)</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,205,0)</v>
-      </c>
-      <c r="P4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>206</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,206,0)</v>
       </c>
-      <c r="P5" t="s">
-        <v>183</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="P4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>207</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,207,0)</v>
-      </c>
-      <c r="P6" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>301</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,301,0)</v>
       </c>
-      <c r="P7" t="s">
-        <v>185</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="P5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>302</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,302,0)</v>
       </c>
-      <c r="P8" t="s">
-        <v>186</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="P6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>303</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,303,0)</v>
       </c>
-      <c r="P9" t="s">
-        <v>187</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="P7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>305</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,305,0)</v>
       </c>
-      <c r="P10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="P8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>306</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,306,0)</v>
-      </c>
-      <c r="P11" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>307</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,307,0)</v>
       </c>
-      <c r="P12" t="s">
-        <v>190</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="P9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
-        <v>308</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,308,0)</v>
-      </c>
-      <c r="P13" t="s">
-        <v>191</v>
-      </c>
-      <c r="R13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>309</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,309,0)</v>
       </c>
-      <c r="P14" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="P10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>310</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,310,0)</v>
       </c>
-      <c r="P15" t="s">
-        <v>193</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="P11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>311</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,311,0)</v>
       </c>
-      <c r="P16" t="s">
-        <v>194</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="P12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>312</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,312,0)</v>
       </c>
-      <c r="P17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="P13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>313</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,313,0)</v>
       </c>
-      <c r="P18" t="s">
-        <v>196</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="P14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>315</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,315,0)</v>
       </c>
-      <c r="P19" t="s">
-        <v>197</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="P15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>317</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,317,0)</v>
       </c>
-      <c r="P20" t="s">
-        <v>198</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="P16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>320</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,320,0)</v>
       </c>
-      <c r="P21" t="s">
-        <v>199</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="P17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>321</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,321,0)</v>
       </c>
-      <c r="P22" t="s">
-        <v>200</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="P18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>322</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,322,0)</v>
       </c>
-      <c r="P23" t="s">
-        <v>201</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="P19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>323</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,323,0)</v>
       </c>
-      <c r="P24" t="s">
-        <v>202</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="P20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>325</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,325,0)</v>
       </c>
-      <c r="P25" t="s">
-        <v>203</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="P21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>326</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,326,0)</v>
       </c>
-      <c r="P26" t="s">
-        <v>204</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="P22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>327</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,327,0)</v>
       </c>
-      <c r="P27" t="s">
-        <v>205</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="P23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>332</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,332,0)</v>
       </c>
-      <c r="P28" t="s">
-        <v>206</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="P24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>333</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,333,0)</v>
       </c>
-      <c r="P29" t="s">
-        <v>207</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="P25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>334</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,334,0)</v>
       </c>
-      <c r="P30" t="s">
-        <v>208</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="P26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>335</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,335,0)</v>
       </c>
-      <c r="P31" t="s">
-        <v>209</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="P27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>351</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,351,0)</v>
       </c>
-      <c r="P32" t="s">
-        <v>210</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="P28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>352</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,352,0)</v>
       </c>
-      <c r="P33" t="s">
-        <v>211</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="P29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>353</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B30" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,353,0)</v>
       </c>
-      <c r="P34" t="s">
-        <v>212</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="P30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>401</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>(5,401,0)</v>
       </c>
-      <c r="P35" t="s">
-        <v>213</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="P31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3299,14 +3220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254886EC-F2A3-4F90-8B23-CF7DA418BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60CFDC-FB9E-47EE-B0BB-37D2C86B65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -648,9 +637,6 @@
   </si>
   <si>
     <t>(5,333,0)</t>
-  </si>
-  <si>
-    <t>(5,334,0)</t>
   </si>
   <si>
     <t>(5,335,0)</t>
@@ -1052,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,35 +1879,35 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>324</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>123</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>50</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>124</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2636,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2667,9 +2653,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18&amp;","&amp;A19&amp;","&amp;A20&amp;","&amp;A21&amp;","&amp;A22&amp;","&amp;A23&amp;","&amp;A24&amp;","&amp;A25&amp;","&amp;A26&amp;","&amp;A27&amp;","&amp;A28&amp;","&amp;A29&amp;","&amp;A30&amp;","&amp;A31</f>
-        <v>205,206,301,302,303,305,307,309,310,311,312,313,315,317,320,321,322,323,325,326,327,332,333,334,335,351,352,353,401</v>
+      <c r="F2" s="2" t="e">
+        <f>A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18&amp;","&amp;A19&amp;","&amp;A20&amp;","&amp;A21&amp;","&amp;A22&amp;","&amp;A23&amp;","&amp;A24&amp;","&amp;A25&amp;","&amp;#REF!&amp;","&amp;A26&amp;","&amp;A27&amp;","&amp;A28&amp;","&amp;A29&amp;","&amp;A30</f>
+        <v>#REF!</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>178</v>
@@ -2695,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J31" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A3&amp;$O$2</f>
+        <f t="shared" ref="J3:J30" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A3&amp;$O$2</f>
         <v>(5,205,0)</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -3103,109 +3089,91 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>(5,334,0)</v>
+        <v>(5,335,0)</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>204</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>(5,335,0)</v>
+        <v>(5,351,0)</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>205</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>(5,351,0)</v>
+        <v>(5,352,0)</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>206</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>(5,352,0)</v>
+        <v>(5,353,0)</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>207</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>(5,353,0)</v>
+        <v>(5,401,0)</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>208</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>401</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,401,0)</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="R31" s="2" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -3,24 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60CFDC-FB9E-47EE-B0BB-37D2C86B65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06659BC9-0E28-405F-BC0B-63A368CD6A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_TalentNewData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_TalentNewData!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="306">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -652,6 +652,297 @@
   </si>
   <si>
     <t>(5,401,0)</t>
+  </si>
+  <si>
+    <t>桀骜不驯</t>
+  </si>
+  <si>
+    <t>暴击后，下次受击必定反击，被反击后，下次攻击必定暴击</t>
+  </si>
+  <si>
+    <t>荆魂不屈</t>
+  </si>
+  <si>
+    <t>在攻击或受到伤害后，提高10%反击、8%减伤，上限50%/40%&lt;br&gt;当累计5次时恢复25%气血与30%内力，并获得霸体持续1回合，且重置累计次数</t>
+  </si>
+  <si>
+    <t>肝胆相照</t>
+  </si>
+  <si>
+    <t>气血35%以上时，保护周遭5格内我方同伴，保护发动时，恢复气血12%，减伤35%</t>
+  </si>
+  <si>
+    <t>步步生花</t>
+  </si>
+  <si>
+    <t>每移动一个格子闪避提升5%（上限40%），攻击后，给予自身2/1格范围内的友方归元/狂暴</t>
+  </si>
+  <si>
+    <t>琴剑和鸣</t>
+  </si>
+  <si>
+    <t>每次使用琴功后获得一层清音，每次使用剑法招式后获得一层剑意&lt;br&gt;使用剑法招式时，消耗2层清音，本次攻击无视防御，附加内伤&lt;br&gt;使用伤害型琴功后，消耗2层剑意，随机使用习得剑法招式二次攻击&lt;br&gt;使用治疗型琴功时，消耗2层剑意，提升目标30%伤害，持续2回合</t>
+  </si>
+  <si>
+    <t>海纳百川</t>
+  </si>
+  <si>
+    <t>受到伤害时，吸收对方当前内力的18%，并随机获取对方内功的一个效果，持续2回合，冷却3回合</t>
+  </si>
+  <si>
+    <t>噬骨蚀心</t>
+  </si>
+  <si>
+    <t>回合开始时，周遭10格内敌方内力减少8%，减少内力值总和的50%将恢复同范围内友方气血，周遭5格内敌方若内力低于35%，则受到自身气血5%的伤害</t>
+  </si>
+  <si>
+    <t>铁拳无敌</t>
+  </si>
+  <si>
+    <t>每第2次攻击时（只额外计算连击），伤害提高40%，若暴击，伤害再提升50%</t>
+  </si>
+  <si>
+    <t>碧海磐途</t>
+  </si>
+  <si>
+    <t>气血每降低10%,减伤8%，上限40%&lt;br&gt;气血每累计降低30%，获得1层气盾（可累加））</t>
+  </si>
+  <si>
+    <t>箭无虚发</t>
+  </si>
+  <si>
+    <t>招式范围+1，必定命中&lt;br&gt;攻击时附加目标大缚身，持续2回合</t>
+  </si>
+  <si>
+    <t>侠影千觞</t>
+  </si>
+  <si>
+    <t>气血每降低10%，伤害提高8%，上限64%&lt;br&gt;周遭5格内每有一名友方，减伤8%，上限40%</t>
+  </si>
+  <si>
+    <t>拳打四方</t>
+  </si>
+  <si>
+    <t>攻击时，目标周遭4格内每有一名敌方，伤害提高40%，若暴击，伤害提升至60%&lt;br&gt;被反击时，对其周遭4格内敌方造成上次攻击伤害80%的伤害</t>
+  </si>
+  <si>
+    <t>剑走游龙</t>
+  </si>
+  <si>
+    <t>本场战斗,每移动一个格子伤害提高5%，上限100%&lt;br&gt;每累计移动12个格子，移动距离+1&lt;br&gt;每回合移动格子数大于等于4/5/8时，伤害提升40%/左右互搏/必定命中</t>
+  </si>
+  <si>
+    <t>崩云任侠</t>
+  </si>
+  <si>
+    <t>暴击后，伤害提高25%，减伤提高25%&lt;br&gt;每习得一个刀法招式，伤害提高8%，减伤提高5%（减伤上限40%）</t>
+  </si>
+  <si>
+    <t>越打越年轻</t>
+  </si>
+  <si>
+    <t>每个回合内，连续（只计算连击）攻击同一个目标时，附加上次攻击50%的伤害和破甲，破甲可叠加，持续1回合</t>
+  </si>
+  <si>
+    <t>净琉璃身</t>
+  </si>
+  <si>
+    <t>最大气血提高30%&lt;br&gt;受击时恢复气血(30%已损失气血+3%最大气血)</t>
+  </si>
+  <si>
+    <t>百花齐放</t>
+  </si>
+  <si>
+    <t>攻击后（左右互搏不计算）获得一层百花齐放，4层时下一次攻击将消耗层数，附加目标8%最大气血的伤害&lt;br&gt;击杀敌人后，本场战斗中招式范围永久+1</t>
+  </si>
+  <si>
+    <t>百兽辟易</t>
+  </si>
+  <si>
+    <t>招式范围+1，攻击时，每距离敌方一格，伤害增加12%&lt;br&gt;暴击时附加断筋持续1回合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">律星回泽 </t>
+  </si>
+  <si>
+    <t>在攻击或承受伤害后，治疗效果提高6%，上限24%&lt;br&gt;每当攻击或承受伤害累计4次时，周遭3/8格内友方恢复气血15%/8%</t>
+  </si>
+  <si>
+    <t>紫影重重</t>
+  </si>
+  <si>
+    <t>周围2格范围内敌方命中减少20%&lt;br&gt;累进闪避30%，闪避后给予敌方断筋状态</t>
+  </si>
+  <si>
+    <t>瘴影蛊遁</t>
+  </si>
+  <si>
+    <t>受击时，敌方每有一种负面状态，伤害降低10%&lt;br&gt;受击后，随机给予对方一个负面状态，若自身气血低于15%，进入隐匿状态</t>
+  </si>
+  <si>
+    <t>霓裳乱舞</t>
+  </si>
+  <si>
+    <t>攻击或承受伤害后，随机自身或对方获得2～3个负面效果&lt;br&gt;自身每有一种负面状态，伤害提高15%，攻击时,目标每有一种负面状态，被暴击的概率提高12%</t>
+  </si>
+  <si>
+    <t>花开两面</t>
+  </si>
+  <si>
+    <t>治疗时，给予目标15%减伤，清除一个负面状态,并附加目标中随机一名友方周遭5格内一名敌方定身状态</t>
+  </si>
+  <si>
+    <t>灵蛊镜心</t>
+  </si>
+  <si>
+    <t>战斗开始时，增加20%气血上限，15%内力上限&lt;br&gt;当自身气血百分比低于内力百分比时，周遭5格内友方获得噬气状态，反之获得吸星状态</t>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+  </si>
+  <si>
+    <t>治疗效果提高30%，每次使用招式时，为气血最低的1个友方恢复该招式所消耗内力值的220%的气血</t>
+  </si>
+  <si>
+    <t>一剑无血</t>
+  </si>
+  <si>
+    <t>攻击无视目标防御&lt;br&gt;暴击后获得左右互博状态，持续1回合&lt;br&gt;/击杀敌人后,获得续战状态，持续一回合</t>
+  </si>
+  <si>
+    <t>藏锋卷势</t>
+  </si>
+  <si>
+    <t>周遭5格内每有1名敌方反击提高12%&lt;br&gt;反击时，目标生命每降低20%，恢复自身25%内力</t>
+  </si>
+  <si>
+    <t>翩若惊鸿</t>
+  </si>
+  <si>
+    <t>每回合第一次受到攻击时，必定闪避。自身每有1%闪避，伤害额外提升2%</t>
+  </si>
+  <si>
+    <t>皇剑无言</t>
+  </si>
+  <si>
+    <t>反击时伤害提高35%，反击后归元，持续1回合&lt;br&gt;反击时若暴击，非反击攻击伤害提高25%，持续1回合</t>
+  </si>
+  <si>
+    <t>棍出如龙</t>
+  </si>
+  <si>
+    <t>暴击后下次攻击伤害提高40%，若下次攻击依然暴击，则造成伤害提高60%</t>
+  </si>
+  <si>
+    <t>谦光不照</t>
+  </si>
+  <si>
+    <t>暴击时附加目标5%气血的伤害，并给予对方消沉状态，持续1回合</t>
+  </si>
+  <si>
+    <t>不语明王</t>
+  </si>
+  <si>
+    <t>回合结束时，若没有移动，则获得必定反击和无限反击状态，持续一回合&lt;br&gt;反击后，恢复自身已损失内力值的35%，若反击没有命中，下次反击必定命中</t>
+  </si>
+  <si>
+    <t>丐龙游世</t>
+  </si>
+  <si>
+    <t>气血每降低1%，减伤提高0.5%，上限30%&lt;br&gt;周遭3格内每有1名敌人，伤害提升12%</t>
+  </si>
+  <si>
+    <t>霹雳狂刀</t>
+  </si>
+  <si>
+    <t>每累计消耗800内力值，暴击提高5%，上限40%&lt;br&gt;暴击时附加自身50%已损失内力值的伤害</t>
+  </si>
+  <si>
+    <t>暗箭难防</t>
+  </si>
+  <si>
+    <t>对敌方单位暴击后，以敌方单位为中心，范围5格内的随机3名敌方单位，随机被附加冰冻、定身、眩晕效果中的任意一种，持续1回合</t>
+  </si>
+  <si>
+    <t>花の人斩</t>
+  </si>
+  <si>
+    <t>攻击始终视为背袭&lt;br&gt;暴击后，若自身气血低于20%则进入隐匿状态，并且给与周遭2格敌方目盲状态</t>
+  </si>
+  <si>
+    <t>势大力沉</t>
+  </si>
+  <si>
+    <t>每有一个回合未进行移动，伤害提高125%，至多累计2回合&lt;br&gt;若2个回合未进行移动，移动距离提升2格</t>
+  </si>
+  <si>
+    <t>水榭回澜</t>
+  </si>
+  <si>
+    <t>反击时附加目标当前气血5%的伤害，并吸收目标10%的当前内力值&lt;br&gt;若反击没有命中，下次反击必定命中，且内力消耗降低65%</t>
+  </si>
+  <si>
+    <t>白锋余鸣</t>
+  </si>
+  <si>
+    <t>气血每降低15%，反击提高8%/反击伤害提高10%，上限48%/60%&lt;br&gt;反击后恢复内力20%</t>
+  </si>
+  <si>
+    <t>金实为开</t>
+  </si>
+  <si>
+    <t>受到伤害后提高反击15%、防御20%，上限45%/60%&lt;br&gt;累计受到3次伤害后，反击时恢复25%气血和35%内力，减少目标防御（3次防御值*1.2），并重置累计次数</t>
+  </si>
+  <si>
+    <t>残照无影</t>
+  </si>
+  <si>
+    <t>使用招式后，闪避提升12%，最高至60%&lt;br&gt;攻击时，闪避每比对方多2%，伤害提升3%</t>
+  </si>
+  <si>
+    <t>佛剑魔刀</t>
+  </si>
+  <si>
+    <t>攻击时30%机率附加目标立地成佛状态&lt;br&gt;攻击时吸收伤害的50%回复气血和内力&lt;br&gt;连斩</t>
+  </si>
+  <si>
+    <t>不着形相</t>
+  </si>
+  <si>
+    <t>反击时模仿敌方招式进行反击&lt;br&gt;受击时若为同类型武器招式，则必定反击</t>
+  </si>
+  <si>
+    <t>阴阳调和</t>
+  </si>
+  <si>
+    <t>战斗开始时，增加自身内力上限35%的气血上限&lt;br&gt;每1200气血，提高6%减伤和6%内力恢复效果</t>
+  </si>
+  <si>
+    <t>梅开二度</t>
+  </si>
+  <si>
+    <t>攻击后，40%机率随机使用一个已习得招式进行二次攻击</t>
+  </si>
+  <si>
+    <t>隐元韬晦</t>
+  </si>
+  <si>
+    <t>战斗开始时，习得招式神龙出世</t>
+  </si>
+  <si>
+    <t>同气连枝</t>
+  </si>
+  <si>
+    <t>周遭2格内友方进行攻击时，有40%概率一起进行攻击&lt;br&gt;周遭3格内每有一个友方，伤害提高18%</t>
+  </si>
+  <si>
+    <t>T210002_3</t>
+  </si>
+  <si>
+    <t>战斗后获得经验加成</t>
+  </si>
+  <si>
+    <t>身旁同伴攻击时，有概率一起攻击,身旁同伴越多，伤害越高</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2278,7 +2569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>341</v>
       </c>
@@ -2301,7 +2592,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>342</v>
       </c>
@@ -2324,7 +2615,7 @@
         <v>500008</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>343</v>
       </c>
@@ -2347,7 +2638,7 @@
         <v>500007</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>344</v>
       </c>
@@ -2370,7 +2661,7 @@
         <v>500001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>345</v>
       </c>
@@ -2393,7 +2684,7 @@
         <v>500009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>346</v>
       </c>
@@ -2416,7 +2707,7 @@
         <v>100143</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>347</v>
       </c>
@@ -2439,7 +2730,7 @@
         <v>100140</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>348</v>
       </c>
@@ -2462,7 +2753,7 @@
         <v>100145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>349</v>
       </c>
@@ -2485,7 +2776,7 @@
         <v>500026</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>350</v>
       </c>
@@ -2508,7 +2799,7 @@
         <v>500023</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>351</v>
       </c>
@@ -2531,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>352</v>
       </c>
@@ -2554,7 +2845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>353</v>
       </c>
@@ -2586,7 +2877,7 @@
         <v>100135</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>401</v>
       </c>
@@ -2607,6 +2898,1933 @@
       </c>
       <c r="G62">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>547</v>
+      </c>
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63">
+        <v>501</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>990460</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>546</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64">
+        <v>501</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>990450</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>545</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65">
+        <v>501</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>990020</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>544</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>501</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>990440</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>543</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67">
+        <v>501</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>990430</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>542</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68">
+        <v>501</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>990420</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>541</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69">
+        <v>501</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>990410</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>540</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70">
+        <v>501</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>990400</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>539</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71">
+        <v>501</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>990390</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>538</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72">
+        <v>501</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>990380</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>537</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73">
+        <v>501</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>990370</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>536</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74">
+        <v>501</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>990360</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>535</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75">
+        <v>501</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>990350</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>534</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76">
+        <v>501</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>990340</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>533</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77">
+        <v>501</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>990330</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>532</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78">
+        <v>501</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>990320</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>531</v>
+      </c>
+      <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79">
+        <v>501</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>990310</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>530</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80">
+        <v>501</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>990300</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>529</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81">
+        <v>501</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>990290</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>528</v>
+      </c>
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82">
+        <v>501</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>990280</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>527</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83">
+        <v>501</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>990270</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>526</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>501</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>990260</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>525</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85">
+        <v>501</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>990250</v>
+      </c>
+      <c r="H85">
+        <v>501</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>990253</v>
+      </c>
+      <c r="K85">
+        <v>501</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>990254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>524</v>
+      </c>
+      <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86">
+        <v>501</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>990240</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>523</v>
+      </c>
+      <c r="B87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87">
+        <v>501</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>990230</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>522</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88">
+        <v>501</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>990220</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>521</v>
+      </c>
+      <c r="B89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89">
+        <v>501</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>990210</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>520</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90">
+        <v>501</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>990200</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>519</v>
+      </c>
+      <c r="B91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91">
+        <v>501</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>990190</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>518</v>
+      </c>
+      <c r="B92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92">
+        <v>501</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>990180</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>517</v>
+      </c>
+      <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93">
+        <v>501</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>990170</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>516</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94">
+        <v>501</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>990160</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>515</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95">
+        <v>501</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>990150</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>514</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96">
+        <v>501</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>990140</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>513</v>
+      </c>
+      <c r="B97" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97">
+        <v>501</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>990130</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>512</v>
+      </c>
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98">
+        <v>501</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>990120</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>511</v>
+      </c>
+      <c r="B99" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>501</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>990110</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100">
+        <v>501</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>990100</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>509</v>
+      </c>
+      <c r="B101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" t="s">
+        <v>286</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>501</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>990090</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>508</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102">
+        <v>501</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>990080</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>507</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103">
+        <v>501</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>990070</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>506</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104">
+        <v>501</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>990060</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>505</v>
+      </c>
+      <c r="B105" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105">
+        <v>501</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>990050</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>504</v>
+      </c>
+      <c r="B106" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" t="s">
+        <v>296</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106">
+        <v>501</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>990040</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>503</v>
+      </c>
+      <c r="B107" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107">
+        <v>501</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>990030</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <v>501</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>990000</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>501</v>
+      </c>
+      <c r="B109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109">
+        <v>137</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>115</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>18</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3189,14 +5407,3549 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>201</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>202</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>203</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>204</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>205</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>206</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>206</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>207</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>207</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>208</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>209</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>210</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>500012</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>103</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100136</v>
+      </c>
+      <c r="H14">
+        <v>103</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>102</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>104</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>106</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>133</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>107</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>110</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>100139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>310</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>311</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>114</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>312</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>134</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>100139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>102</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>100137</v>
+      </c>
+      <c r="H26">
+        <v>102</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>500004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>315</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>119</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>141</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>317</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>111</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>100139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>206</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>320</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>321</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>500025</v>
+      </c>
+      <c r="H33">
+        <v>132</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>500035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>322</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34">
+        <v>121</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>122</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36">
+        <v>123</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>124</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>325</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37">
+        <v>105</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>910183</v>
+      </c>
+      <c r="H37">
+        <v>105</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>500050</v>
+      </c>
+      <c r="K37">
+        <v>125</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>900102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38">
+        <v>126</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>127</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39">
+        <v>128</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>328</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40">
+        <v>102</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>100138</v>
+      </c>
+      <c r="H40">
+        <v>102</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>500005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>329</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41">
+        <v>129</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>600056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>330</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42">
+        <v>130</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>131</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>332</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44">
+        <v>115</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>333</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45">
+        <v>132</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>100154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46">
+        <v>136</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47">
+        <v>137</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>336</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>139</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>140</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49">
+        <v>135</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>339</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50">
+        <v>104</v>
+      </c>
+      <c r="F50">
+        <v>80</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>341</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>102</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>342</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52">
+        <v>102</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>500008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>343</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53">
+        <v>102</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>500007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>344</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54">
+        <v>102</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>345</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55">
+        <v>102</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>500009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>346</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>103</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>100143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>347</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>103</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>103</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>100145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>349</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>103</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>500026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>350</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>103</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>500023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>351</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61">
+        <v>138</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>352</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62">
+        <v>137</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>353</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63">
+        <v>105</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>100134</v>
+      </c>
+      <c r="H63">
+        <v>105</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>100135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>401</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64">
+        <v>115</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>547</v>
+      </c>
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65">
+        <v>501</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>990460</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>546</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>501</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>990450</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>545</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67">
+        <v>501</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>990020</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>544</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68">
+        <v>501</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>990440</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>543</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69">
+        <v>501</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>990430</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>542</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70">
+        <v>501</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>990420</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>541</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71">
+        <v>501</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>990410</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>540</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72">
+        <v>501</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>990400</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>539</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73">
+        <v>501</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>990390</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>538</v>
+      </c>
+      <c r="B74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74">
+        <v>501</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>990380</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>537</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75">
+        <v>501</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>990370</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>536</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76">
+        <v>501</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>990360</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>535</v>
+      </c>
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77">
+        <v>501</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>990350</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>534</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78">
+        <v>501</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>990340</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>533</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79">
+        <v>501</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>990330</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>532</v>
+      </c>
+      <c r="B80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80">
+        <v>501</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>990320</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>531</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81">
+        <v>501</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>990310</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>530</v>
+      </c>
+      <c r="B82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82">
+        <v>501</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>990300</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>529</v>
+      </c>
+      <c r="B83" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83">
+        <v>501</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>990290</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>528</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>501</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>990280</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>527</v>
+      </c>
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85">
+        <v>501</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>990270</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>526</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86">
+        <v>501</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>990260</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>525</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87">
+        <v>501</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>990250</v>
+      </c>
+      <c r="H87">
+        <v>501</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>990253</v>
+      </c>
+      <c r="K87">
+        <v>501</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>990254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>524</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88">
+        <v>501</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>990240</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>523</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89">
+        <v>501</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>990230</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>522</v>
+      </c>
+      <c r="B90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90">
+        <v>501</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>990220</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>521</v>
+      </c>
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91">
+        <v>501</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>990210</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>520</v>
+      </c>
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92">
+        <v>501</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>990200</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>519</v>
+      </c>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93">
+        <v>501</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>990190</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>518</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94">
+        <v>501</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>990180</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>517</v>
+      </c>
+      <c r="B95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95">
+        <v>501</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>990170</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>516</v>
+      </c>
+      <c r="B96" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96">
+        <v>501</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>990160</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>515</v>
+      </c>
+      <c r="B97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97">
+        <v>501</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>990150</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>514</v>
+      </c>
+      <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98">
+        <v>501</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>990140</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>513</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>501</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>990130</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>512</v>
+      </c>
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100">
+        <v>501</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>990120</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>511</v>
+      </c>
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>501</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>990110</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>510</v>
+      </c>
+      <c r="B102" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102">
+        <v>501</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>990100</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>509</v>
+      </c>
+      <c r="B103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" t="s">
+        <v>286</v>
+      </c>
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103">
+        <v>501</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>990090</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>508</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104">
+        <v>501</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>990080</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>507</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>290</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105">
+        <v>501</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>990070</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>506</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106">
+        <v>501</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>990060</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>505</v>
+      </c>
+      <c r="B107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107">
+        <v>501</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>990050</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>504</v>
+      </c>
+      <c r="B108" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" t="s">
+        <v>296</v>
+      </c>
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108">
+        <v>501</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>990040</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>503</v>
+      </c>
+      <c r="B109" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109">
+        <v>501</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>990030</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>502</v>
+      </c>
+      <c r="B110" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <v>501</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>990000</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>501</v>
+      </c>
+      <c r="B111" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111">
+        <v>137</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>115</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06659BC9-0E28-405F-BC0B-63A368CD6A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94798F6F-E93B-4670-BDBC-DC3069A1A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="307">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>身旁同伴攻击时，有概率一起攻击,身旁同伴越多，伤害越高</t>
+  </si>
+  <si>
+    <t>气血35%以上时，保护周遭3格内我方同伴，保护发动时，恢复气血5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1329,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="O101" sqref="O101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2990,7 +2994,7 @@
         <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
         <v>135</v>

--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94798F6F-E93B-4670-BDBC-DC3069A1A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC18C8-33AB-456F-88EE-8AE6CFCD7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="308">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>气血35%以上时，保护周遭3格内我方同伴，保护发动时，恢复气血5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式范围+1，攻击时，每距离敌方一格，伤害增加8%&lt;br&gt;暴击时附加断筋持续1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3609,7 +3613,7 @@
         <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
         <v>135</v>

--- a/Excel文件/xiakeqian/天赋.xlsx
+++ b/Excel文件/xiakeqian/天赋.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC18C8-33AB-456F-88EE-8AE6CFCD7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61659B1B-A36C-4114-9B64-668FF8BF532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="310">
   <si>
     <t>#iTalenID</t>
   </si>
@@ -951,6 +951,12 @@
   <si>
     <t>招式范围+1，攻击时，每距离敌方一格，伤害增加8%&lt;br&gt;暴击时附加断筋持续1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九剑归一</t>
+  </si>
+  <si>
+    <t>受到攻击时，每2点自身对应的基础防御提升1%反击率&lt;br&gt;若触发反击，则抢先进行反击&lt;br&gt;无限反击</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2910,13 +2916,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="D63" t="s">
         <v>135</v>
@@ -2928,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>990460</v>
+        <v>990470</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2951,13 +2957,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
         <v>135</v>
@@ -2969,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>990450</v>
+        <v>990460</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2992,13 +2998,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
         <v>135</v>
@@ -3010,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>990020</v>
+        <v>990450</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3033,13 +3039,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
         <v>135</v>
@@ -3051,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>990440</v>
+        <v>990020</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3074,13 +3080,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
         <v>135</v>
@@ -3092,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>990430</v>
+        <v>990440</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3115,13 +3121,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
         <v>135</v>
@@ -3133,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>990420</v>
+        <v>990430</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3156,13 +3162,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
         <v>135</v>
@@ -3174,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>990410</v>
+        <v>990420</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3197,13 +3203,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D70" t="s">
         <v>135</v>
@@ -3215,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>990400</v>
+        <v>990410</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3238,13 +3244,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
         <v>135</v>
@@ -3256,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>990390</v>
+        <v>990400</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3279,13 +3285,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
         <v>135</v>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>990380</v>
+        <v>990390</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3320,13 +3326,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
         <v>135</v>
@@ -3338,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>990370</v>
+        <v>990380</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3361,13 +3367,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
         <v>135</v>
@@ -3379,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>990360</v>
+        <v>990370</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3402,13 +3408,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
         <v>135</v>
@@ -3420,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>990350</v>
+        <v>990360</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3443,13 +3449,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
         <v>135</v>
@@ -3461,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>990340</v>
+        <v>990350</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3484,13 +3490,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
         <v>135</v>
@@ -3502,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>990330</v>
+        <v>990340</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3525,13 +3531,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
         <v>135</v>
@@ -3543,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>990320</v>
+        <v>990330</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3566,13 +3572,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" t="s">
         <v>135</v>
@@ -3584,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>990310</v>
+        <v>990320</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3607,13 +3613,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
         <v>135</v>
@@ -3625,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>990300</v>
+        <v>990310</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3648,13 +3654,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
         <v>135</v>
@@ -3666,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>990290</v>
+        <v>990300</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3689,13 +3695,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
         <v>135</v>
@@ -3707,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>990280</v>
+        <v>990290</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3730,13 +3736,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s">
         <v>135</v>
@@ -3748,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>990270</v>
+        <v>990280</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3771,13 +3777,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
         <v>135</v>
@@ -3789,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>990260</v>
+        <v>990270</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3812,13 +3818,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
         <v>135</v>
@@ -3830,36 +3836,36 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>990250</v>
+        <v>990260</v>
       </c>
       <c r="H85">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>990253</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>990254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
         <v>135</v>
@@ -3871,36 +3877,36 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>990240</v>
+        <v>990250</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>990253</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>990254</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
         <v>135</v>
@@ -3912,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>990230</v>
+        <v>990240</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3935,13 +3941,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
         <v>135</v>
@@ -3953,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>990220</v>
+        <v>990230</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3976,13 +3982,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" t="s">
         <v>135</v>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>990210</v>
+        <v>990220</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4017,13 +4023,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" t="s">
         <v>135</v>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>990200</v>
+        <v>990210</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4058,13 +4064,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D91" t="s">
         <v>135</v>
@@ -4076,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>990190</v>
+        <v>990200</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4099,13 +4105,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" t="s">
         <v>135</v>
@@ -4117,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>990180</v>
+        <v>990190</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4140,13 +4146,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
         <v>135</v>
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>990170</v>
+        <v>990180</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4181,13 +4187,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D94" t="s">
         <v>135</v>
@@ -4199,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>990160</v>
+        <v>990170</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4222,13 +4228,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" t="s">
         <v>135</v>
@@ -4240,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>990150</v>
+        <v>990160</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4263,13 +4269,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
         <v>135</v>
@@ -4281,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>990140</v>
+        <v>990150</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4304,13 +4310,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
         <v>135</v>
@@ -4322,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>990130</v>
+        <v>990140</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4345,13 +4351,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" t="s">
         <v>135</v>
@@ -4363,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>990120</v>
+        <v>990130</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4386,13 +4392,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
         <v>135</v>
@@ -4404,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>990110</v>
+        <v>990120</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4427,13 +4433,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s">
         <v>135</v>
@@ -4445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>990100</v>
+        <v>990110</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4468,13 +4474,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" t="s">
         <v>135</v>
@@ -4486,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>990090</v>
+        <v>990100</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4509,13 +4515,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" t="s">
         <v>135</v>
@@ -4527,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>990080</v>
+        <v>990090</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4550,13 +4556,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" t="s">
         <v>135</v>
@@ -4568,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>990070</v>
+        <v>990080</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4591,13 +4597,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
         <v>135</v>
@@ -4609,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>990060</v>
+        <v>990070</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4632,13 +4638,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" t="s">
         <v>135</v>
@@ -4650,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>990050</v>
+        <v>990060</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4673,13 +4679,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" t="s">
         <v>135</v>
@@ -4691,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>990040</v>
+        <v>990050</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4714,13 +4720,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
         <v>135</v>
@@ -4732,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>990030</v>
+        <v>990040</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4755,16 +4761,16 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E108">
         <v>501</v>
@@ -4773,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>990000</v>
+        <v>990030</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4796,42 +4802,83 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" t="s">
+        <v>300</v>
+      </c>
+      <c r="D109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109">
+        <v>501</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>990000</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>501</v>
+      </c>
+      <c r="B110" t="s">
         <v>301</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>302</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>138</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>137</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>2</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>40</v>
       </c>
-      <c r="H109">
+      <c r="H110">
         <v>115</v>
       </c>
-      <c r="I109">
+      <c r="I110">
         <v>3</v>
       </c>
-      <c r="J109">
+      <c r="J110">
         <v>18</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
         <v>0</v>
       </c>
     </row>
